--- a/static/tmp/registro/planificacion3.xlsx
+++ b/static/tmp/registro/planificacion3.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81312</v>
+        <v>81156</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45173.6125</v>
+        <v>45176.40972222222</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45173.90902777778</v>
+        <v>45176.47916666666</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>81804</v>
+        <v>81290</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45173.25</v>
+        <v>45176.33333333334</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45173.57638888889</v>
+        <v>45176.45833333334</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81805</v>
+        <v>81317</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45176.44583333333</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45173.65972222222</v>
+        <v>45176.70416666667</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>81814</v>
+        <v>81318</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45173.41666666666</v>
+        <v>45176.40416666667</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45173.74305555555</v>
+        <v>45176.6625</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81820</v>
+        <v>81320</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45173.5</v>
+        <v>45176.32083333333</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45173.82638888889</v>
+        <v>45176.57916666667</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82158</v>
+        <v>81322</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45173.35972222222</v>
+        <v>45176.52916666667</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45173.53819444445</v>
+        <v>45176.7875</v>
       </c>
     </row>
     <row r="8">
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82297</v>
+        <v>81325</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45173.43819444445</v>
+        <v>45176.57083333333</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45173.75069444445</v>
+        <v>45176.82916666667</v>
       </c>
     </row>
     <row r="9">
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82336</v>
+        <v>81326</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45173.50555555556</v>
+        <v>45176.6125</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45173.85416666666</v>
+        <v>45176.86666666667</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82354</v>
+        <v>81327</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45173.42222222222</v>
+        <v>45176.3625</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45173.72083333333</v>
+        <v>45176.61666666667</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82371</v>
+        <v>82433</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45173.3625</v>
+        <v>45176.41875</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45173.53819444445</v>
+        <v>45176.48819444444</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +599,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82525</v>
+        <v>82447</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45173.31319444445</v>
+        <v>45176.5625</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45173.62638888889</v>
+        <v>45176.63194444445</v>
       </c>
     </row>
     <row r="13">
@@ -613,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82595</v>
+        <v>82533</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45173.58333333334</v>
+        <v>45176.55416666667</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45173.78819444445</v>
+        <v>45176.62361111111</v>
       </c>
     </row>
     <row r="14">
@@ -627,13 +627,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82636</v>
+        <v>82534</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45173.30138888889</v>
+        <v>45176.56111111111</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45173.62222222222</v>
+        <v>45176.63055555556</v>
       </c>
     </row>
     <row r="15">
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82643</v>
+        <v>82564</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45173.5</v>
+        <v>45176.48472222222</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45173.82638888889</v>
+        <v>45176.75763888889</v>
       </c>
     </row>
     <row r="16">
@@ -655,13 +655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82644</v>
+        <v>82678</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45173.36111111111</v>
+        <v>45176.52013888889</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45173.53819444445</v>
+        <v>45176.846875</v>
       </c>
     </row>
     <row r="17">
@@ -669,13 +669,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82647</v>
+        <v>82679</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45173.27777777778</v>
+        <v>45176.45763888889</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45173.57291666666</v>
+        <v>45176.784375</v>
       </c>
     </row>
     <row r="18">
@@ -683,13 +683,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82675</v>
+        <v>82735</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45173.27083333334</v>
+        <v>45176.43819444445</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45173.55277777778</v>
+        <v>45176.75277777778</v>
       </c>
     </row>
     <row r="19">
@@ -697,13 +697,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82676</v>
+        <v>82736</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45173.375</v>
+        <v>45176.56319444445</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45173.65694444445</v>
+        <v>45176.75277777778</v>
       </c>
     </row>
     <row r="20">
@@ -711,13 +711,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82677</v>
+        <v>82750</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45173.45763888889</v>
+        <v>45176.31875</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45173.81319444445</v>
+        <v>45176.709375</v>
       </c>
     </row>
     <row r="21">
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82685</v>
+        <v>82766</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45173.29166666666</v>
+        <v>45176.38611111111</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45173.62291666667</v>
+        <v>45176.70347222222</v>
       </c>
     </row>
     <row r="22">
@@ -739,13 +739,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>82713</v>
+        <v>82769</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45173.54097222222</v>
+        <v>45176.32291666666</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45173.89652777778</v>
+        <v>45176.66215277778</v>
       </c>
     </row>
     <row r="23">
@@ -753,13 +753,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82719</v>
+        <v>82771</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45173.44791666666</v>
+        <v>45176.32291666666</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45173.65694444445</v>
+        <v>45176.66215277778</v>
       </c>
     </row>
     <row r="24">
@@ -767,13 +767,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>82725</v>
+        <v>82772</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45173.79166666666</v>
+        <v>45176.57291666666</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45174.14930555555</v>
+        <v>45176.91215277778</v>
       </c>
     </row>
     <row r="25">
@@ -781,13 +781,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>82745</v>
+        <v>82774</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45173.31875</v>
+        <v>45176.57291666666</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45173.49652777778</v>
+        <v>45176.91215277778</v>
       </c>
     </row>
     <row r="26">
@@ -795,13 +795,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>82748</v>
+        <v>82984</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45173.39583333334</v>
+        <v>45176.56805555556</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45173.72361111111</v>
+        <v>45176.84097222222</v>
       </c>
     </row>
     <row r="27">
@@ -809,13 +809,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>82764</v>
+        <v>83055</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45173.29166666666</v>
+        <v>45176.50972222222</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45173.69166666667</v>
+        <v>45176.73333333333</v>
       </c>
     </row>
     <row r="28">
@@ -823,13 +823,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>82768</v>
+        <v>83080</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45173.29097222222</v>
+        <v>45176.31319444445</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45173.64652777778</v>
+        <v>45176.62777777778</v>
       </c>
     </row>
     <row r="29">
@@ -837,13 +837,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>82770</v>
+        <v>83090</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45173.34375</v>
+        <v>45176.45</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45173.63680555556</v>
+        <v>45177.01319444444</v>
       </c>
     </row>
     <row r="30">
@@ -851,13 +851,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>82797</v>
+        <v>83122</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45173.40486111111</v>
+        <v>45176.58333333334</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45173.75277777778</v>
+        <v>45176.92013888889</v>
       </c>
     </row>
     <row r="31">
@@ -865,13 +865,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>82947</v>
+        <v>83123</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45173.34236111111</v>
+        <v>45176.71388888889</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45173.69027777778</v>
+        <v>45177.00555555556</v>
       </c>
     </row>
     <row r="32">
@@ -879,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83076</v>
+        <v>83136</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45176.61319444444</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45173.65486111111</v>
+        <v>45176.88333333333</v>
       </c>
     </row>
     <row r="33">
@@ -893,13 +893,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>83077</v>
+        <v>83148</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45176.4625</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45173.65486111111</v>
+        <v>45176.82465277778</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>83111</v>
+        <v>83153</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45173.66944444444</v>
+        <v>45176.34236111111</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45173.97638888889</v>
+        <v>45176.57152777778</v>
       </c>
     </row>
     <row r="35">
@@ -921,13 +921,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>83124</v>
+        <v>83160</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45173.29166666666</v>
+        <v>45176.58333333334</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45173.625</v>
+        <v>45176.87465277778</v>
       </c>
     </row>
     <row r="36">
@@ -935,13 +935,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83134</v>
+        <v>83166</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45173.41666666666</v>
+        <v>45176.61597222222</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45173.74236111111</v>
+        <v>45176.775</v>
       </c>
     </row>
     <row r="37">
@@ -949,13 +949,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83163</v>
+        <v>83167</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45173.59305555555</v>
+        <v>45176.55138888889</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45173.88263888889</v>
+        <v>45176.71944444445</v>
       </c>
     </row>
     <row r="38">
@@ -963,13 +963,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83182</v>
+        <v>83174</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45173.57291666666</v>
+        <v>45176.34305555555</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45173.74652777778</v>
+        <v>45176.5625</v>
       </c>
     </row>
     <row r="39">
@@ -977,13 +977,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83191</v>
+        <v>83175</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45173.3125</v>
+        <v>45176.71388888889</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45173.67013888889</v>
+        <v>45176.9375</v>
       </c>
     </row>
     <row r="40">
@@ -991,13 +991,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83195</v>
+        <v>83181</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45173.55138888889</v>
+        <v>45176.65347222222</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45173.84513888889</v>
+        <v>45176.85</v>
       </c>
     </row>
     <row r="41">
@@ -1005,13 +1005,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83235</v>
+        <v>83210</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45173.32152777778</v>
+        <v>45176.54166666666</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45173.49652777778</v>
+        <v>45176.91944444444</v>
       </c>
     </row>
     <row r="42">
@@ -1019,13 +1019,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83256</v>
+        <v>83219</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45173.375</v>
+        <v>45176.59305555555</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45173.57986111111</v>
+        <v>45176.86319444444</v>
       </c>
     </row>
     <row r="43">
@@ -1033,13 +1033,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>83260</v>
+        <v>83229</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45176.42569444444</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45173.53819444445</v>
+        <v>45176.65486111111</v>
       </c>
     </row>
     <row r="44">
@@ -1047,13 +1047,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83262</v>
+        <v>83247</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45173.29166666666</v>
+        <v>45176.30138888889</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45173.49652777778</v>
+        <v>45176.57361111111</v>
       </c>
     </row>
     <row r="45">
@@ -1061,13 +1061,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>83267</v>
+        <v>83248</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45173.32361111111</v>
+        <v>45176.40833333333</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45173.47569444445</v>
+        <v>45176.47777777778</v>
       </c>
     </row>
     <row r="46">
@@ -1075,13 +1075,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>83268</v>
+        <v>83252</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45173.42777777778</v>
+        <v>45176.53611111111</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45173.57986111111</v>
+        <v>45176.88333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1089,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83269</v>
+        <v>83254</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45173.55277777778</v>
+        <v>45176.28611111111</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45173.70486111111</v>
+        <v>45176.63333333333</v>
       </c>
     </row>
     <row r="48">
@@ -1103,13 +1103,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83270</v>
+        <v>83258</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45173.59444444445</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45173.74652777778</v>
+        <v>45176.46805555555</v>
       </c>
     </row>
     <row r="49">
@@ -1117,13 +1117,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83286</v>
+        <v>83264</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45173.52222222222</v>
+        <v>45176.3125</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45173.82847222222</v>
+        <v>45176.50972222222</v>
       </c>
     </row>
     <row r="50">
@@ -1131,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>83312</v>
+        <v>83279</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45173.22916666666</v>
+        <v>45176.65138888889</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45173.60347222222</v>
+        <v>45176.72083333333</v>
       </c>
     </row>
     <row r="51">
@@ -1145,13 +1145,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83313</v>
+        <v>83282</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45173.22916666666</v>
+        <v>45176.82986111111</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45173.60347222222</v>
+        <v>45176.89930555555</v>
       </c>
     </row>
     <row r="52">
@@ -1159,13 +1159,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83361</v>
+        <v>83287</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45173.5</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45173.70486111111</v>
+        <v>45176.72361111111</v>
       </c>
     </row>
     <row r="53">
@@ -1173,13 +1173,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83362</v>
+        <v>83288</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45173.54166666666</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45173.74652777778</v>
+        <v>45176.72361111111</v>
       </c>
     </row>
     <row r="54">
@@ -1187,13 +1187,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>83393</v>
+        <v>83289</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45173.30972222222</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45173.65625</v>
+        <v>45176.72361111111</v>
       </c>
     </row>
     <row r="55">
@@ -1201,13 +1201,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>83649</v>
+        <v>83290</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45173.25</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45173.57708333333</v>
+        <v>45176.72361111111</v>
       </c>
     </row>
     <row r="56">
@@ -1215,13 +1215,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>83650</v>
+        <v>83291</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45173.25</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45173.375</v>
+        <v>45176.72361111111</v>
       </c>
     </row>
     <row r="57">
@@ -1229,13 +1229,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>83664</v>
+        <v>83292</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45173.33333333334</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45173.69097222222</v>
+        <v>45176.72361111111</v>
       </c>
     </row>
     <row r="58">
@@ -1243,13 +1243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>83691</v>
+        <v>83293</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45173.5</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45173.82847222222</v>
+        <v>45176.72361111111</v>
       </c>
     </row>
     <row r="59">
@@ -1257,13 +1257,1315 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>83752</v>
+        <v>83294</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45173.57638888889</v>
+        <v>45176.27083333334</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45173.64583333334</v>
+        <v>45176.72361111111</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>83295</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45176.27083333334</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45176.72361111111</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>83297</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45176.32986111111</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45176.45486111111</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>83298</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45176.32638888889</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45176.45138888889</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>83299</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45176.34027777778</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45176.46527777778</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>83301</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45176.89513888889</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45176.96458333333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>83303</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45176.33333333334</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45176.52152777778</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>83309</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45176.41666666666</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45176.72152777778</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>83315</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45176.68402777778</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45176.75347222222</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>83316</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45176.72361111111</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45176.79305555556</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>83338</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45176.31041666667</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45176.62986111111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>83349</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45176.46319444444</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45176.53263888889</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>83351</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45176.48541666667</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45176.803125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>83352</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45176.56875</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45176.88645833333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>83353</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45176.70555555556</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45176.775</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>83354</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45176.52708333333</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45176.84479166667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>83373</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45176.33472222222</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45176.40416666667</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>83377</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45176.75069444445</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45176.82013888889</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>83378</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45176.44791666666</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45176.71527777778</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>83385</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45176.29097222222</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45176.57673611111</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>83390</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45176.72986111111</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45176.79930555556</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>83537</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45176.81805555556</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45176.8875</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>83538</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45176.64444444444</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45176.71388888889</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>83540</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45176.72777777778</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45176.79722222222</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>83543</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45176.73541666667</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45177.04791666667</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83544</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45176.75902777778</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45176.82847222222</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83545</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45176.64583333334</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45176.71527777778</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>83546</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45176.82777777778</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45176.89722222222</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>83548</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45176.67361111111</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45176.74305555555</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>83554</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45176.45763888889</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45176.52708333333</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>83557</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45176.35416666666</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45176.72986111111</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>83560</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45176.54861111111</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45176.61805555555</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>83561</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45176.64166666667</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45176.71111111111</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>83562</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45176.44722222222</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45176.81388888889</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>83564</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45176.73888888889</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45177.08888888889</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>83566</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45176.84097222222</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45176.91041666667</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>83567</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45176.71597222222</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45177.00625</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>83569</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45176.81875</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45176.88819444444</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>83579</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45176.86875</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45176.93819444445</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>83585</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45176.56111111111</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45176.63055555556</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>83594</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45176.55833333333</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45176.62777777778</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>83603</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45176.54444444444</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45176.61388888889</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>83604</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45176.70833333334</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45177.15972222222</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>83610</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45176.44791666666</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45176.51736111111</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>83612</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45176.75277777778</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45176.82222222222</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>83618</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45176.82083333333</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45176.89027777778</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>83624</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45176.59722222222</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45176.66666666666</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>83629</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45176.86458333334</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45176.93402777778</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>83635</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45176.72013888889</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45176.78958333333</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>83637</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45176.66666666666</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45176.73611111111</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>83638</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45176.40138888889</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45177.14583333334</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>83639</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45176.56319444445</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45176.63263888889</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>83641</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45176.45833333334</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45176.82951388889</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>83645</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45176.81388888889</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45176.88333333333</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>83700</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45176.53958333333</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45176.85381944444</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>83701</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>45176.83402777778</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45176.90347222222</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>83702</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45176.375</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45176.71041666667</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>83714</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>45176.33333333334</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45176.66875</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>83717</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>45176.57638888889</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45176.64583333334</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>83721</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45176.57361111111</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45176.64305555556</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>83746</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>45176.56388888889</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45176.63333333333</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>83754</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>45176.25</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45176.58611111111</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>83755</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>45176.27083333334</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45176.58194444444</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>83787</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>45176.3125</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45176.62361111111</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>83788</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>45176.41875</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45176.48819444444</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>83808</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>45176.35138888889</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45176.42083333333</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>83820</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>45176.57361111111</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45176.64305555556</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>83825</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45176.57638888889</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45176.64583333334</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>83855</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>45176.575</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45176.64444444444</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>83866</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>45176.45555555556</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45176.525</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>83872</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>45176.85</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45176.91944444444</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>83896</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>45176.34583333333</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45177.02152777778</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>83931</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>45176.58333333334</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45176.70833333334</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>83934</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>45176.82361111111</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45176.89305555556</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>83952</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>45176.65208333333</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45176.77708333333</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>83953</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>45176.63888888889</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45176.70833333334</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>83958</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>45176.63888888889</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45176.70833333334</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>83961</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>45176.33680555555</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45176.85555555556</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>83962</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>45176.29166666666</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45176.60555555556</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>83964</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>45176.33958333333</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45176.40902777778</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>83965</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>45176.43819444445</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45176.50763888889</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>83966</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>45176.35208333333</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45176.42152777778</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>83981</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>45176.33819444444</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45176.40763888889</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>83999</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>45176.30555555555</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45176.375</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>84000</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>45176.54166666666</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45176.89861111111</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>84003</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>45176.5</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45176.85694444444</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>84005</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>45176.47916666666</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45176.83611111111</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>84006</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>45176.58472222222</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>45176.87638888889</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>84007</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>45176.72222222222</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45176.79166666666</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>84015</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>45176.30555555555</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45176.375</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>84017</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>45176.41666666666</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45176.54166666666</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>84018</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>45176.73263888889</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45176.85763888889</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>84020</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>45176.5</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45176.625</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>83599</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45176.84791666667</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45176.91736111111</v>
       </c>
     </row>
   </sheetData>
